--- a/Terminales_Pasajeros.xlsx
+++ b/Terminales_Pasajeros.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Infraestructura Carretera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBCD88AB-6530-48BF-8CE3-593C60EC5073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5E5CA6-9A19-4850-80CF-4A434B9857AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_1.2" sheetId="1" r:id="rId1"/>
+    <sheet name="C_17" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -332,7 +332,7 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>

--- a/Terminales_Pasajeros.xlsx
+++ b/Terminales_Pasajeros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5E5CA6-9A19-4850-80CF-4A434B9857AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7749EBE-0D47-46BA-B06B-B81C6F24DCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_17" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -152,14 +152,14 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Terminales de pasajeros por entidad federativa 2023</t>
+    <t>Terminales de pasajeros por entidad federativa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +199,12 @@
       <name val="Montserrat Medium"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Montserrat"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -298,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -336,6 +342,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -577,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O167"/>
+  <dimension ref="B2:O168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -601,7 +616,7 @@
     <col min="14" max="14" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
@@ -618,7 +633,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -633,405 +648,1427 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="19">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19">
+        <v>2019</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19">
+        <v>2020</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19">
+        <v>2021</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19">
+        <v>2022</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19">
+        <v>2023</v>
+      </c>
+      <c r="N4" s="19"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="18"/>
+      <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C6" s="11">
         <v>2</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D6" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
+      <c r="E6" s="11">
+        <v>2</v>
+      </c>
+      <c r="F6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="13">
+      <c r="G6" s="11">
+        <v>2</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11">
+        <v>2</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <v>2</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11">
+        <v>2</v>
+      </c>
+      <c r="N6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
+        <v>28</v>
+      </c>
+      <c r="D7" s="13">
+        <v>12</v>
+      </c>
+      <c r="E7" s="13">
+        <v>28</v>
+      </c>
+      <c r="F7" s="13">
+        <v>12</v>
+      </c>
+      <c r="G7" s="13">
+        <v>28</v>
+      </c>
+      <c r="H7" s="13">
+        <v>12</v>
+      </c>
+      <c r="I7" s="13">
+        <v>28</v>
+      </c>
+      <c r="J7" s="13">
+        <v>12</v>
+      </c>
+      <c r="K7" s="13">
+        <v>28</v>
+      </c>
+      <c r="L7" s="13">
+        <v>12</v>
+      </c>
+      <c r="M7" s="13">
         <v>26</v>
       </c>
-      <c r="D6" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+      <c r="N7" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C8" s="11">
         <v>11</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D8" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
+      <c r="E8" s="11">
+        <v>11</v>
+      </c>
+      <c r="F8" s="11">
+        <v>5</v>
+      </c>
+      <c r="G8" s="11">
+        <v>11</v>
+      </c>
+      <c r="H8" s="11">
+        <v>5</v>
+      </c>
+      <c r="I8" s="11">
+        <v>11</v>
+      </c>
+      <c r="J8" s="11">
+        <v>5</v>
+      </c>
+      <c r="K8" s="11">
+        <v>11</v>
+      </c>
+      <c r="L8" s="11">
+        <v>5</v>
+      </c>
+      <c r="M8" s="11">
+        <v>11</v>
+      </c>
+      <c r="N8" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="13">
-        <v>9</v>
-      </c>
-      <c r="D8" s="14">
+      <c r="C9" s="13">
+        <v>9</v>
+      </c>
+      <c r="D9" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="E9" s="13">
+        <v>9</v>
+      </c>
+      <c r="F9" s="13">
+        <v>3</v>
+      </c>
+      <c r="G9" s="13">
+        <v>9</v>
+      </c>
+      <c r="H9" s="13">
+        <v>3</v>
+      </c>
+      <c r="I9" s="13">
+        <v>9</v>
+      </c>
+      <c r="J9" s="13">
+        <v>3</v>
+      </c>
+      <c r="K9" s="13">
+        <v>9</v>
+      </c>
+      <c r="L9" s="13">
+        <v>3</v>
+      </c>
+      <c r="M9" s="13">
+        <v>9</v>
+      </c>
+      <c r="N9" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11">
+        <v>26</v>
+      </c>
+      <c r="D10" s="11">
+        <v>13</v>
+      </c>
+      <c r="E10" s="11">
+        <v>26</v>
+      </c>
+      <c r="F10" s="11">
+        <v>17</v>
+      </c>
+      <c r="G10" s="11">
+        <v>26</v>
+      </c>
+      <c r="H10" s="11">
+        <v>17</v>
+      </c>
+      <c r="I10" s="11">
+        <v>26</v>
+      </c>
+      <c r="J10" s="11">
+        <v>18</v>
+      </c>
+      <c r="K10" s="11">
+        <v>26</v>
+      </c>
+      <c r="L10" s="11">
         <v>20</v>
       </c>
-      <c r="D9" s="12">
+      <c r="M10" s="11">
+        <v>20</v>
+      </c>
+      <c r="N10" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C11" s="13">
+        <v>17</v>
+      </c>
+      <c r="D11" s="13">
+        <v>6</v>
+      </c>
+      <c r="E11" s="13">
+        <v>17</v>
+      </c>
+      <c r="F11" s="13">
+        <v>7</v>
+      </c>
+      <c r="G11" s="13">
+        <v>17</v>
+      </c>
+      <c r="H11" s="13">
+        <v>7</v>
+      </c>
+      <c r="I11" s="13">
+        <v>17</v>
+      </c>
+      <c r="J11" s="13">
+        <v>7</v>
+      </c>
+      <c r="K11" s="13">
+        <v>19</v>
+      </c>
+      <c r="L11" s="13">
+        <v>7</v>
+      </c>
+      <c r="M11" s="13">
         <v>18</v>
       </c>
-      <c r="D10" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11">
-        <v>6</v>
-      </c>
-      <c r="D11" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="36" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
+      <c r="N11" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11">
         <v>4</v>
       </c>
-      <c r="C12" s="13">
+      <c r="D12" s="11">
+        <v>7</v>
+      </c>
+      <c r="E12" s="11">
+        <v>4</v>
+      </c>
+      <c r="F12" s="11">
+        <v>7</v>
+      </c>
+      <c r="G12" s="11">
+        <v>12</v>
+      </c>
+      <c r="H12" s="11">
+        <v>8</v>
+      </c>
+      <c r="I12" s="11">
+        <v>12</v>
+      </c>
+      <c r="J12" s="11">
+        <v>8</v>
+      </c>
+      <c r="K12" s="11">
+        <v>12</v>
+      </c>
+      <c r="L12" s="11">
+        <v>9</v>
+      </c>
+      <c r="M12" s="11">
+        <v>6</v>
+      </c>
+      <c r="N12" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="36" x14ac:dyDescent="0.35">
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="13">
+        <v>6</v>
+      </c>
+      <c r="E13" s="13">
+        <v>12</v>
+      </c>
+      <c r="F13" s="13">
+        <v>8</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>2</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>2</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="13">
+        <v>2</v>
+      </c>
+      <c r="M13" s="13">
         <v>11</v>
       </c>
-      <c r="D12" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
+      <c r="N13" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C14" s="11">
         <v>0</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="13">
-        <v>6</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2</v>
+      </c>
+      <c r="G14" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
+      <c r="H14" s="11">
+        <v>7</v>
+      </c>
+      <c r="I14" s="11">
+        <v>4</v>
+      </c>
+      <c r="J14" s="11">
+        <v>7</v>
+      </c>
+      <c r="K14" s="11">
+        <v>4</v>
+      </c>
+      <c r="L14" s="11">
+        <v>7</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="13">
+        <v>6</v>
+      </c>
+      <c r="D15" s="13">
+        <v>3</v>
+      </c>
+      <c r="E15" s="13">
+        <v>6</v>
+      </c>
+      <c r="F15" s="13">
+        <v>3</v>
+      </c>
+      <c r="G15" s="13">
+        <v>6</v>
+      </c>
+      <c r="H15" s="13">
+        <v>4</v>
+      </c>
+      <c r="I15" s="13">
+        <v>6</v>
+      </c>
+      <c r="J15" s="13">
+        <v>4</v>
+      </c>
+      <c r="K15" s="13">
+        <v>6</v>
+      </c>
+      <c r="L15" s="13">
+        <v>4</v>
+      </c>
+      <c r="M15" s="13">
+        <v>6</v>
+      </c>
+      <c r="N15" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C16" s="11">
         <v>30</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D16" s="11">
+        <v>22</v>
+      </c>
+      <c r="E16" s="11">
+        <v>33</v>
+      </c>
+      <c r="F16" s="11">
+        <v>23</v>
+      </c>
+      <c r="G16" s="11">
+        <v>33</v>
+      </c>
+      <c r="H16" s="11">
+        <v>23</v>
+      </c>
+      <c r="I16" s="11">
+        <v>33</v>
+      </c>
+      <c r="J16" s="11">
+        <v>23</v>
+      </c>
+      <c r="K16" s="11">
+        <v>33</v>
+      </c>
+      <c r="L16" s="11">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="13">
-        <v>9</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="M16" s="11">
+        <v>30</v>
+      </c>
+      <c r="N16" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="13">
+        <v>9</v>
+      </c>
+      <c r="D17" s="13">
+        <v>18</v>
+      </c>
+      <c r="E17" s="13">
+        <v>10</v>
+      </c>
+      <c r="F17" s="13">
         <v>19</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
+      <c r="G17" s="13">
+        <v>10</v>
+      </c>
+      <c r="H17" s="13">
+        <v>19</v>
+      </c>
+      <c r="I17" s="13">
+        <v>10</v>
+      </c>
+      <c r="J17" s="13">
+        <v>19</v>
+      </c>
+      <c r="K17" s="13">
+        <v>10</v>
+      </c>
+      <c r="L17" s="13">
+        <v>19</v>
+      </c>
+      <c r="M17" s="13">
+        <v>9</v>
+      </c>
+      <c r="N17" s="14">
+        <v>19</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C18" s="11">
+        <v>26</v>
+      </c>
+      <c r="D18" s="11">
+        <v>10</v>
+      </c>
+      <c r="E18" s="11">
+        <v>26</v>
+      </c>
+      <c r="F18" s="11">
+        <v>11</v>
+      </c>
+      <c r="G18" s="11">
+        <v>26</v>
+      </c>
+      <c r="H18" s="11">
+        <v>11</v>
+      </c>
+      <c r="I18" s="11">
+        <v>26</v>
+      </c>
+      <c r="J18" s="11">
+        <v>11</v>
+      </c>
+      <c r="K18" s="11">
+        <v>26</v>
+      </c>
+      <c r="L18" s="11">
+        <v>11</v>
+      </c>
+      <c r="M18" s="11">
         <v>24</v>
       </c>
-      <c r="D17" s="12">
+      <c r="N18" s="12">
         <v>11</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C19" s="13">
+        <v>17</v>
+      </c>
+      <c r="D19" s="13">
+        <v>13</v>
+      </c>
+      <c r="E19" s="13">
+        <v>16</v>
+      </c>
+      <c r="F19" s="13">
+        <v>14</v>
+      </c>
+      <c r="G19" s="13">
+        <v>16</v>
+      </c>
+      <c r="H19" s="13">
+        <v>14</v>
+      </c>
+      <c r="I19" s="13">
+        <v>16</v>
+      </c>
+      <c r="J19" s="13">
         <v>15</v>
       </c>
-      <c r="D18" s="14">
+      <c r="K19" s="13">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B19" s="5" t="s">
+      <c r="L19" s="13">
+        <v>16</v>
+      </c>
+      <c r="M19" s="13">
+        <v>15</v>
+      </c>
+      <c r="N19" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C20" s="11">
         <v>41</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="11">
+        <v>26</v>
+      </c>
+      <c r="E20" s="11">
+        <v>41</v>
+      </c>
+      <c r="F20" s="11">
+        <v>26</v>
+      </c>
+      <c r="G20" s="11">
+        <v>43</v>
+      </c>
+      <c r="H20" s="11">
+        <v>27</v>
+      </c>
+      <c r="I20" s="11">
+        <v>44</v>
+      </c>
+      <c r="J20" s="11">
+        <v>29</v>
+      </c>
+      <c r="K20" s="11">
+        <v>44</v>
+      </c>
+      <c r="L20" s="11">
+        <v>29</v>
+      </c>
+      <c r="M20" s="11">
+        <v>41</v>
+      </c>
+      <c r="N20" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="36" x14ac:dyDescent="0.35">
-      <c r="B20" s="6" t="s">
+    <row r="21" spans="2:15" ht="36" x14ac:dyDescent="0.35">
+      <c r="B21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C21" s="13">
+        <v>15</v>
+      </c>
+      <c r="D21" s="13">
+        <v>15</v>
+      </c>
+      <c r="E21" s="13">
+        <v>15</v>
+      </c>
+      <c r="F21" s="13">
+        <v>15</v>
+      </c>
+      <c r="G21" s="13">
+        <v>15</v>
+      </c>
+      <c r="H21" s="13">
+        <v>15</v>
+      </c>
+      <c r="I21" s="13">
+        <v>15</v>
+      </c>
+      <c r="J21" s="13">
+        <v>16</v>
+      </c>
+      <c r="K21" s="13">
+        <v>15</v>
+      </c>
+      <c r="L21" s="13">
+        <v>16</v>
+      </c>
+      <c r="M21" s="13">
         <v>13</v>
       </c>
-      <c r="D20" s="14">
+      <c r="N21" s="14">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C22" s="11">
         <v>18</v>
       </c>
-      <c r="D21" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B22" s="6" t="s">
+      <c r="D22" s="11">
+        <v>9</v>
+      </c>
+      <c r="E22" s="11">
+        <v>18</v>
+      </c>
+      <c r="F22" s="11">
+        <v>9</v>
+      </c>
+      <c r="G22" s="11">
+        <v>18</v>
+      </c>
+      <c r="H22" s="11">
+        <v>9</v>
+      </c>
+      <c r="I22" s="11">
+        <v>18</v>
+      </c>
+      <c r="J22" s="11">
+        <v>9</v>
+      </c>
+      <c r="K22" s="11">
+        <v>18</v>
+      </c>
+      <c r="L22" s="11">
+        <v>9</v>
+      </c>
+      <c r="M22" s="11">
+        <v>18</v>
+      </c>
+      <c r="N22" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C23" s="13">
+        <v>19</v>
+      </c>
+      <c r="D23" s="13">
+        <v>9</v>
+      </c>
+      <c r="E23" s="13">
+        <v>19</v>
+      </c>
+      <c r="F23" s="13">
+        <v>9</v>
+      </c>
+      <c r="G23" s="13">
+        <v>19</v>
+      </c>
+      <c r="H23" s="13">
+        <v>9</v>
+      </c>
+      <c r="I23" s="13">
+        <v>19</v>
+      </c>
+      <c r="J23" s="13">
+        <v>9</v>
+      </c>
+      <c r="K23" s="13">
+        <v>19</v>
+      </c>
+      <c r="L23" s="13">
+        <v>10</v>
+      </c>
+      <c r="M23" s="13">
         <v>21</v>
       </c>
-      <c r="D22" s="14">
+      <c r="N23" s="14">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C24" s="11">
         <v>13</v>
       </c>
-      <c r="D23" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B24" s="6" t="s">
+      <c r="D24" s="11">
+        <v>8</v>
+      </c>
+      <c r="E24" s="11">
+        <v>13</v>
+      </c>
+      <c r="F24" s="11">
+        <v>8</v>
+      </c>
+      <c r="G24" s="11">
+        <v>13</v>
+      </c>
+      <c r="H24" s="11">
+        <v>8</v>
+      </c>
+      <c r="I24" s="11">
+        <v>13</v>
+      </c>
+      <c r="J24" s="11">
+        <v>9</v>
+      </c>
+      <c r="K24" s="11">
+        <v>13</v>
+      </c>
+      <c r="L24" s="11">
+        <v>9</v>
+      </c>
+      <c r="M24" s="11">
+        <v>13</v>
+      </c>
+      <c r="N24" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C25" s="13">
+        <v>73</v>
+      </c>
+      <c r="D25" s="13">
+        <v>13</v>
+      </c>
+      <c r="E25" s="13">
         <v>74</v>
       </c>
-      <c r="D24" s="14">
+      <c r="F25" s="13">
+        <v>13</v>
+      </c>
+      <c r="G25" s="13">
+        <v>74</v>
+      </c>
+      <c r="H25" s="13">
+        <v>13</v>
+      </c>
+      <c r="I25" s="13">
+        <v>74</v>
+      </c>
+      <c r="J25" s="13">
+        <v>13</v>
+      </c>
+      <c r="K25" s="13">
+        <v>74</v>
+      </c>
+      <c r="L25" s="13">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B25" s="5" t="s">
+      <c r="M25" s="13">
+        <v>74</v>
+      </c>
+      <c r="N25" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C26" s="11">
+        <v>50</v>
+      </c>
+      <c r="D26" s="11">
+        <v>27</v>
+      </c>
+      <c r="E26" s="11">
+        <v>50</v>
+      </c>
+      <c r="F26" s="11">
+        <v>28</v>
+      </c>
+      <c r="G26" s="11">
+        <v>50</v>
+      </c>
+      <c r="H26" s="11">
+        <v>29</v>
+      </c>
+      <c r="I26" s="11">
+        <v>50</v>
+      </c>
+      <c r="J26" s="11">
+        <v>30</v>
+      </c>
+      <c r="K26" s="11">
+        <v>51</v>
+      </c>
+      <c r="L26" s="11">
+        <v>31</v>
+      </c>
+      <c r="M26" s="11">
         <v>48</v>
       </c>
-      <c r="D25" s="12">
+      <c r="N26" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B26" s="6" t="s">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C27" s="13">
         <v>1</v>
       </c>
-      <c r="D26" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B27" s="5" t="s">
+      <c r="D27" s="13">
+        <v>6</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1</v>
+      </c>
+      <c r="F27" s="13">
+        <v>6</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13">
+        <v>6</v>
+      </c>
+      <c r="I27" s="13">
+        <v>1</v>
+      </c>
+      <c r="J27" s="13">
+        <v>6</v>
+      </c>
+      <c r="K27" s="13">
+        <v>1</v>
+      </c>
+      <c r="L27" s="13">
+        <v>6</v>
+      </c>
+      <c r="M27" s="13">
+        <v>1</v>
+      </c>
+      <c r="N27" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="11">
-        <v>8</v>
-      </c>
-      <c r="D27" s="12">
+      <c r="C28" s="11">
+        <v>8</v>
+      </c>
+      <c r="D28" s="11">
+        <v>3</v>
+      </c>
+      <c r="E28" s="11">
+        <v>8</v>
+      </c>
+      <c r="F28" s="11">
+        <v>3</v>
+      </c>
+      <c r="G28" s="11">
+        <v>8</v>
+      </c>
+      <c r="H28" s="11">
+        <v>3</v>
+      </c>
+      <c r="I28" s="11">
+        <v>8</v>
+      </c>
+      <c r="J28" s="11">
+        <v>3</v>
+      </c>
+      <c r="K28" s="11">
+        <v>8</v>
+      </c>
+      <c r="L28" s="11">
+        <v>3</v>
+      </c>
+      <c r="M28" s="11">
+        <v>8</v>
+      </c>
+      <c r="N28" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B28" s="6" t="s">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C29" s="13">
         <v>11</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D29" s="13">
+        <v>8</v>
+      </c>
+      <c r="E29" s="13">
+        <v>11</v>
+      </c>
+      <c r="F29" s="13">
+        <v>9</v>
+      </c>
+      <c r="G29" s="13">
+        <v>11</v>
+      </c>
+      <c r="H29" s="13">
+        <v>10</v>
+      </c>
+      <c r="I29" s="13">
+        <v>11</v>
+      </c>
+      <c r="J29" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B29" s="5" t="s">
+      <c r="K29" s="13">
+        <v>11</v>
+      </c>
+      <c r="L29" s="13">
+        <v>12</v>
+      </c>
+      <c r="M29" s="13">
+        <v>11</v>
+      </c>
+      <c r="N29" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C30" s="11">
+        <v>21</v>
+      </c>
+      <c r="D30" s="11">
+        <v>9</v>
+      </c>
+      <c r="E30" s="11">
+        <v>21</v>
+      </c>
+      <c r="F30" s="11">
+        <v>11</v>
+      </c>
+      <c r="G30" s="11">
+        <v>21</v>
+      </c>
+      <c r="H30" s="11">
+        <v>11</v>
+      </c>
+      <c r="I30" s="11">
+        <v>21</v>
+      </c>
+      <c r="J30" s="11">
+        <v>12</v>
+      </c>
+      <c r="K30" s="11">
+        <v>23</v>
+      </c>
+      <c r="L30" s="11">
+        <v>12</v>
+      </c>
+      <c r="M30" s="11">
         <v>22</v>
       </c>
-      <c r="D29" s="12">
+      <c r="N30" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B30" s="6" t="s">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C31" s="13">
+        <v>20</v>
+      </c>
+      <c r="D31" s="13">
+        <v>10</v>
+      </c>
+      <c r="E31" s="13">
         <v>21</v>
       </c>
-      <c r="D30" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B31" s="5" t="s">
+      <c r="F31" s="13">
+        <v>10</v>
+      </c>
+      <c r="G31" s="13">
+        <v>21</v>
+      </c>
+      <c r="H31" s="13">
+        <v>10</v>
+      </c>
+      <c r="I31" s="13">
+        <v>21</v>
+      </c>
+      <c r="J31" s="13">
+        <v>10</v>
+      </c>
+      <c r="K31" s="13">
+        <v>21</v>
+      </c>
+      <c r="L31" s="13">
+        <v>10</v>
+      </c>
+      <c r="M31" s="13">
+        <v>21</v>
+      </c>
+      <c r="N31" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="11">
-        <v>8</v>
-      </c>
-      <c r="D31" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="11">
+        <v>9</v>
+      </c>
+      <c r="D32" s="11">
+        <v>4</v>
+      </c>
+      <c r="E32" s="11">
+        <v>8</v>
+      </c>
+      <c r="F32" s="11">
+        <v>5</v>
+      </c>
+      <c r="G32" s="11">
+        <v>8</v>
+      </c>
+      <c r="H32" s="11">
+        <v>5</v>
+      </c>
+      <c r="I32" s="11">
+        <v>8</v>
+      </c>
+      <c r="J32" s="11">
+        <v>5</v>
+      </c>
+      <c r="K32" s="11">
+        <v>8</v>
+      </c>
+      <c r="L32" s="11">
+        <v>6</v>
+      </c>
+      <c r="M32" s="11">
+        <v>8</v>
+      </c>
+      <c r="N32" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B33" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="13">
-        <v>8</v>
-      </c>
-      <c r="D32" s="14">
+      <c r="C33" s="13">
+        <v>9</v>
+      </c>
+      <c r="D33" s="13">
+        <v>21</v>
+      </c>
+      <c r="E33" s="13">
+        <v>9</v>
+      </c>
+      <c r="F33" s="13">
+        <v>21</v>
+      </c>
+      <c r="G33" s="13">
+        <v>9</v>
+      </c>
+      <c r="H33" s="13">
+        <v>21</v>
+      </c>
+      <c r="I33" s="13">
+        <v>10</v>
+      </c>
+      <c r="J33" s="13">
+        <v>21</v>
+      </c>
+      <c r="K33" s="13">
+        <v>10</v>
+      </c>
+      <c r="L33" s="13">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="5" t="s">
+      <c r="M33" s="13">
+        <v>8</v>
+      </c>
+      <c r="N33" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C34" s="11">
+        <v>15</v>
+      </c>
+      <c r="D34" s="11">
+        <v>6</v>
+      </c>
+      <c r="E34" s="11">
+        <v>15</v>
+      </c>
+      <c r="F34" s="11">
+        <v>6</v>
+      </c>
+      <c r="G34" s="11">
+        <v>16</v>
+      </c>
+      <c r="H34" s="11">
+        <v>6</v>
+      </c>
+      <c r="I34" s="11">
+        <v>16</v>
+      </c>
+      <c r="J34" s="11">
+        <v>6</v>
+      </c>
+      <c r="K34" s="11">
+        <v>16</v>
+      </c>
+      <c r="L34" s="11">
+        <v>6</v>
+      </c>
+      <c r="M34" s="11">
         <v>14</v>
       </c>
-      <c r="D33" s="12">
+      <c r="N34" s="12">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="36" x14ac:dyDescent="0.35">
-      <c r="B34" s="6" t="s">
+    <row r="35" spans="2:14" ht="36" x14ac:dyDescent="0.35">
+      <c r="B35" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C35" s="13">
         <v>71</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="13">
+        <v>34</v>
+      </c>
+      <c r="E35" s="13">
+        <v>71</v>
+      </c>
+      <c r="F35" s="13">
+        <v>35</v>
+      </c>
+      <c r="G35" s="13">
+        <v>71</v>
+      </c>
+      <c r="H35" s="13">
+        <v>35</v>
+      </c>
+      <c r="I35" s="13">
+        <v>71</v>
+      </c>
+      <c r="J35" s="13">
+        <v>35</v>
+      </c>
+      <c r="K35" s="13">
+        <v>72</v>
+      </c>
+      <c r="L35" s="13">
+        <v>35</v>
+      </c>
+      <c r="M35" s="13">
+        <v>71</v>
+      </c>
+      <c r="N35" s="14">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="5" t="s">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="11">
-        <v>9</v>
-      </c>
-      <c r="D35" s="12">
+      <c r="C36" s="11">
+        <v>10</v>
+      </c>
+      <c r="D36" s="11">
+        <v>3</v>
+      </c>
+      <c r="E36" s="11">
+        <v>10</v>
+      </c>
+      <c r="F36" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="7" t="s">
+      <c r="G36" s="11">
+        <v>10</v>
+      </c>
+      <c r="H36" s="11">
+        <v>4</v>
+      </c>
+      <c r="I36" s="11">
+        <v>10</v>
+      </c>
+      <c r="J36" s="11">
+        <v>4</v>
+      </c>
+      <c r="K36" s="11">
+        <v>10</v>
+      </c>
+      <c r="L36" s="11">
+        <v>4</v>
+      </c>
+      <c r="M36" s="11">
+        <v>9</v>
+      </c>
+      <c r="N36" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B37" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="15">
-        <v>8</v>
-      </c>
-      <c r="D36" s="16">
+      <c r="C37" s="15">
+        <v>8</v>
+      </c>
+      <c r="D37" s="15">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
+      <c r="E37" s="15">
+        <v>8</v>
+      </c>
+      <c r="F37" s="15">
+        <v>7</v>
+      </c>
+      <c r="G37" s="15">
+        <v>8</v>
+      </c>
+      <c r="H37" s="15">
+        <v>7</v>
+      </c>
+      <c r="I37" s="15">
+        <v>8</v>
+      </c>
+      <c r="J37" s="15">
+        <v>7</v>
+      </c>
+      <c r="K37" s="15">
+        <v>8</v>
+      </c>
+      <c r="L37" s="15">
+        <v>7</v>
+      </c>
+      <c r="M37" s="15">
+        <v>8</v>
+      </c>
+      <c r="N37" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C38" s="3"/>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="N38" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="8"/>
-      <c r="D39" s="10" t="s">
+    <row r="39" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="3"/>
+      <c r="N39" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H165" s="3"/>
+    <row r="40" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="8"/>
     </row>
     <row r="166" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H166" s="3"/>
     </row>
-    <row r="167" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H167" s="3"/>
+    </row>
+    <row r="168" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Terminales_Pasajeros.xlsx
+++ b/Terminales_Pasajeros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Autotransporte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7749EBE-0D47-46BA-B06B-B81C6F24DCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C7F854-2A6D-49A4-A9AC-89BD7676B96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -134,12 +134,6 @@
     <t>Zacatecas</t>
   </si>
   <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
-  <si>
     <t>Individuales</t>
   </si>
   <si>
@@ -153,6 +147,9 @@
   </si>
   <si>
     <t>Terminales de pasajeros por entidad federativa</t>
+  </si>
+  <si>
+    <t>Actualización: mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -342,14 +339,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -592,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O168"/>
+  <dimension ref="B2:O167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -601,7 +598,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" customWidth="1"/>
     <col min="3" max="3" width="11.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.796875" bestFit="1" customWidth="1"/>
@@ -616,9 +613,9 @@
     <col min="14" max="14" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -649,71 +646,71 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="17">
         <v>2018</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17">
         <v>2019</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17">
         <v>2020</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17">
         <v>2021</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17">
         <v>2022</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19">
+      <c r="L4" s="17"/>
+      <c r="M4" s="17">
         <v>2023</v>
       </c>
-      <c r="N4" s="19"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
@@ -962,7 +959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +1000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="36" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>4</v>
       </c>
@@ -1333,7 +1330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="36" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
         <v>15</v>
       </c>
@@ -2030,7 +2027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>37</v>
       </c>
@@ -2039,17 +2036,16 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="N38" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
       <c r="C39" s="3"/>
-      <c r="N39" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C40" s="8"/>
     </row>
     <row r="166" spans="8:8" x14ac:dyDescent="0.35">
@@ -2058,7 +2054,6 @@
     <row r="167" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H167" s="3"/>
     </row>
-    <row r="168" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="M4:N4"/>

--- a/Terminales_Pasajeros.xlsx
+++ b/Terminales_Pasajeros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C7F854-2A6D-49A4-A9AC-89BD7676B96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8C0E1F-E0E3-4776-920A-BA351DFF2F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>

--- a/Terminales_Pasajeros.xlsx
+++ b/Terminales_Pasajeros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8C0E1F-E0E3-4776-920A-BA351DFF2F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269330C5-C14A-42CD-8BBF-CAC7BB960FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_17" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
     <t>Terminales de pasajeros por entidad federativa</t>
   </si>
   <si>
-    <t>Actualización: mayo 2024.</t>
+    <t>Actualización: Mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -160,19 +160,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -180,27 +180,27 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -369,7 +369,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -377,28 +377,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -407,14 +407,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -595,25 +595,25 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -645,7 +645,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>34</v>
       </c>
@@ -674,7 +674,7 @@
       </c>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
       <c r="C5" s="4" t="s">
         <v>32</v>
@@ -713,7 +713,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
@@ -795,7 +795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
@@ -836,7 +836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -918,7 +918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
@@ -959,7 +959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>4</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>15</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>16</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>18</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>19</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>20</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>21</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>23</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>24</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>25</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>26</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>27</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>28</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="36" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>29</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>30</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>31</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>37</v>
       </c>
@@ -2038,20 +2038,20 @@
       <c r="G38" s="3"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="3"/>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C40" s="8"/>
     </row>
-    <row r="166" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H166" s="3"/>
     </row>
-    <row r="167" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H167" s="3"/>
     </row>
   </sheetData>

--- a/Terminales_Pasajeros.xlsx
+++ b/Terminales_Pasajeros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269330C5-C14A-42CD-8BBF-CAC7BB960FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FC2FC0-9D75-4953-A48E-741122757AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_17" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,23 +165,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -191,17 +178,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Geomanist"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -299,54 +295,55 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -595,25 +592,26 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="20.25" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
@@ -630,7 +628,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -645,1414 +643,1414 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="5">
         <v>2018</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
         <v>2019</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
         <v>2020</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5">
         <v>2021</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5">
         <v>2022</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5">
         <v>2023</v>
       </c>
-      <c r="N4" s="17"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="4" t="s">
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>1</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>2</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>1</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <v>2</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="9">
         <v>1</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="9">
         <v>2</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="9">
         <v>1</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="9">
         <v>2</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>28</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>12</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>28</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>12</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>28</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>12</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>28</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>12</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <v>28</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <v>12</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <v>26</v>
       </c>
-      <c r="N7" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="N7" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>11</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>5</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>11</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>5</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <v>11</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <v>5</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <v>11</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="9">
         <v>5</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <v>11</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="9">
         <v>5</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="9">
         <v>11</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="13">
-        <v>9</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="C9" s="12">
+        <v>9</v>
+      </c>
+      <c r="D9" s="12">
         <v>3</v>
       </c>
-      <c r="E9" s="13">
-        <v>9</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="E9" s="12">
+        <v>9</v>
+      </c>
+      <c r="F9" s="12">
         <v>3</v>
       </c>
-      <c r="G9" s="13">
-        <v>9</v>
-      </c>
-      <c r="H9" s="13">
+      <c r="G9" s="12">
+        <v>9</v>
+      </c>
+      <c r="H9" s="12">
         <v>3</v>
       </c>
-      <c r="I9" s="13">
-        <v>9</v>
-      </c>
-      <c r="J9" s="13">
+      <c r="I9" s="12">
+        <v>9</v>
+      </c>
+      <c r="J9" s="12">
         <v>3</v>
       </c>
-      <c r="K9" s="13">
-        <v>9</v>
-      </c>
-      <c r="L9" s="13">
+      <c r="K9" s="12">
+        <v>9</v>
+      </c>
+      <c r="L9" s="12">
         <v>3</v>
       </c>
-      <c r="M9" s="13">
-        <v>9</v>
-      </c>
-      <c r="N9" s="14">
+      <c r="M9" s="12">
+        <v>9</v>
+      </c>
+      <c r="N9" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="11">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9">
         <v>26</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>13</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>26</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>17</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <v>26</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <v>17</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="9">
         <v>26</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="9">
         <v>18</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="9">
         <v>26</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="9">
         <v>20</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="9">
         <v>20</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="10">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>17</v>
       </c>
-      <c r="D11" s="13">
-        <v>6</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="D11" s="12">
+        <v>6</v>
+      </c>
+      <c r="E11" s="12">
         <v>17</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>7</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>17</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>7</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>17</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <v>7</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="12">
         <v>19</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="12">
         <v>7</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <v>18</v>
       </c>
-      <c r="N11" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="N11" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9">
         <v>4</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <v>7</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>4</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <v>7</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="9">
         <v>12</v>
       </c>
-      <c r="H12" s="11">
-        <v>8</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="H12" s="9">
+        <v>8</v>
+      </c>
+      <c r="I12" s="9">
         <v>12</v>
       </c>
-      <c r="J12" s="11">
-        <v>8</v>
-      </c>
-      <c r="K12" s="11">
+      <c r="J12" s="9">
+        <v>8</v>
+      </c>
+      <c r="K12" s="9">
         <v>12</v>
       </c>
-      <c r="L12" s="11">
-        <v>9</v>
-      </c>
-      <c r="M12" s="11">
-        <v>6</v>
-      </c>
-      <c r="N12" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="L12" s="9">
+        <v>9</v>
+      </c>
+      <c r="M12" s="9">
+        <v>6</v>
+      </c>
+      <c r="N12" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>12</v>
       </c>
-      <c r="D13" s="13">
-        <v>6</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="D13" s="12">
+        <v>6</v>
+      </c>
+      <c r="E13" s="12">
         <v>12</v>
       </c>
-      <c r="F13" s="13">
-        <v>8</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="F13" s="12">
+        <v>8</v>
+      </c>
+      <c r="G13" s="12">
         <v>0</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <v>2</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>0</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <v>2</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <v>0</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="12">
         <v>2</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <v>11</v>
       </c>
-      <c r="N13" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="N13" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>0</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>2</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <v>0</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>2</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="9">
         <v>4</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <v>7</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="9">
         <v>4</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="9">
         <v>7</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="9">
         <v>4</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="9">
         <v>7</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="9">
         <v>0</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="13">
-        <v>6</v>
-      </c>
-      <c r="D15" s="13">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12">
+        <v>6</v>
+      </c>
+      <c r="D15" s="12">
         <v>3</v>
       </c>
-      <c r="E15" s="13">
-        <v>6</v>
-      </c>
-      <c r="F15" s="13">
+      <c r="E15" s="12">
+        <v>6</v>
+      </c>
+      <c r="F15" s="12">
         <v>3</v>
       </c>
-      <c r="G15" s="13">
-        <v>6</v>
-      </c>
-      <c r="H15" s="13">
+      <c r="G15" s="12">
+        <v>6</v>
+      </c>
+      <c r="H15" s="12">
         <v>4</v>
       </c>
-      <c r="I15" s="13">
-        <v>6</v>
-      </c>
-      <c r="J15" s="13">
+      <c r="I15" s="12">
+        <v>6</v>
+      </c>
+      <c r="J15" s="12">
         <v>4</v>
       </c>
-      <c r="K15" s="13">
-        <v>6</v>
-      </c>
-      <c r="L15" s="13">
+      <c r="K15" s="12">
+        <v>6</v>
+      </c>
+      <c r="L15" s="12">
         <v>4</v>
       </c>
-      <c r="M15" s="13">
-        <v>6</v>
-      </c>
-      <c r="N15" s="14">
+      <c r="M15" s="12">
+        <v>6</v>
+      </c>
+      <c r="N15" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>30</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>22</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>33</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>23</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="9">
         <v>33</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <v>23</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="9">
         <v>33</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="9">
         <v>23</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="9">
         <v>33</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="9">
         <v>24</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="9">
         <v>30</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="10">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="13">
-        <v>9</v>
-      </c>
-      <c r="D17" s="13">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12">
+        <v>9</v>
+      </c>
+      <c r="D17" s="12">
         <v>18</v>
       </c>
-      <c r="E17" s="13">
-        <v>10</v>
-      </c>
-      <c r="F17" s="13">
+      <c r="E17" s="12">
+        <v>10</v>
+      </c>
+      <c r="F17" s="12">
         <v>19</v>
       </c>
-      <c r="G17" s="13">
-        <v>10</v>
-      </c>
-      <c r="H17" s="13">
+      <c r="G17" s="12">
+        <v>10</v>
+      </c>
+      <c r="H17" s="12">
         <v>19</v>
       </c>
-      <c r="I17" s="13">
-        <v>10</v>
-      </c>
-      <c r="J17" s="13">
+      <c r="I17" s="12">
+        <v>10</v>
+      </c>
+      <c r="J17" s="12">
         <v>19</v>
       </c>
-      <c r="K17" s="13">
-        <v>10</v>
-      </c>
-      <c r="L17" s="13">
+      <c r="K17" s="12">
+        <v>10</v>
+      </c>
+      <c r="L17" s="12">
         <v>19</v>
       </c>
-      <c r="M17" s="13">
-        <v>9</v>
-      </c>
-      <c r="N17" s="14">
+      <c r="M17" s="12">
+        <v>9</v>
+      </c>
+      <c r="N17" s="13">
         <v>19</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="9">
         <v>26</v>
       </c>
-      <c r="D18" s="11">
-        <v>10</v>
-      </c>
-      <c r="E18" s="11">
+      <c r="D18" s="9">
+        <v>10</v>
+      </c>
+      <c r="E18" s="9">
         <v>26</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <v>11</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="9">
         <v>26</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="9">
         <v>11</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="9">
         <v>26</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="9">
         <v>11</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="9">
         <v>26</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="9">
         <v>11</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="9">
         <v>24</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="10">
         <v>11</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>17</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>13</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>16</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>14</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <v>16</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="12">
         <v>14</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="12">
         <v>16</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="12">
         <v>15</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="12">
         <v>16</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="12">
         <v>16</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="12">
         <v>15</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <v>41</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <v>26</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="9">
         <v>41</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="9">
         <v>26</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="9">
         <v>43</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="9">
         <v>27</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="9">
         <v>44</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="9">
         <v>29</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="9">
         <v>44</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="9">
         <v>29</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="9">
         <v>41</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="10">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>15</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>15</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>15</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>15</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <v>15</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <v>15</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <v>15</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="12">
         <v>16</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="12">
         <v>15</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="12">
         <v>16</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="12">
         <v>13</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="9">
         <v>18</v>
       </c>
-      <c r="D22" s="11">
-        <v>9</v>
-      </c>
-      <c r="E22" s="11">
+      <c r="D22" s="9">
+        <v>9</v>
+      </c>
+      <c r="E22" s="9">
         <v>18</v>
       </c>
-      <c r="F22" s="11">
-        <v>9</v>
-      </c>
-      <c r="G22" s="11">
+      <c r="F22" s="9">
+        <v>9</v>
+      </c>
+      <c r="G22" s="9">
         <v>18</v>
       </c>
-      <c r="H22" s="11">
-        <v>9</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="H22" s="9">
+        <v>9</v>
+      </c>
+      <c r="I22" s="9">
         <v>18</v>
       </c>
-      <c r="J22" s="11">
-        <v>9</v>
-      </c>
-      <c r="K22" s="11">
+      <c r="J22" s="9">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9">
         <v>18</v>
       </c>
-      <c r="L22" s="11">
-        <v>9</v>
-      </c>
-      <c r="M22" s="11">
+      <c r="L22" s="9">
+        <v>9</v>
+      </c>
+      <c r="M22" s="9">
         <v>18</v>
       </c>
-      <c r="N22" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+      <c r="N22" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>19</v>
       </c>
-      <c r="D23" s="13">
-        <v>9</v>
-      </c>
-      <c r="E23" s="13">
+      <c r="D23" s="12">
+        <v>9</v>
+      </c>
+      <c r="E23" s="12">
         <v>19</v>
       </c>
-      <c r="F23" s="13">
-        <v>9</v>
-      </c>
-      <c r="G23" s="13">
+      <c r="F23" s="12">
+        <v>9</v>
+      </c>
+      <c r="G23" s="12">
         <v>19</v>
       </c>
-      <c r="H23" s="13">
-        <v>9</v>
-      </c>
-      <c r="I23" s="13">
+      <c r="H23" s="12">
+        <v>9</v>
+      </c>
+      <c r="I23" s="12">
         <v>19</v>
       </c>
-      <c r="J23" s="13">
-        <v>9</v>
-      </c>
-      <c r="K23" s="13">
+      <c r="J23" s="12">
+        <v>9</v>
+      </c>
+      <c r="K23" s="12">
         <v>19</v>
       </c>
-      <c r="L23" s="13">
-        <v>10</v>
-      </c>
-      <c r="M23" s="13">
+      <c r="L23" s="12">
+        <v>10</v>
+      </c>
+      <c r="M23" s="12">
         <v>21</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="9">
         <v>13</v>
       </c>
-      <c r="D24" s="11">
-        <v>8</v>
-      </c>
-      <c r="E24" s="11">
+      <c r="D24" s="9">
+        <v>8</v>
+      </c>
+      <c r="E24" s="9">
         <v>13</v>
       </c>
-      <c r="F24" s="11">
-        <v>8</v>
-      </c>
-      <c r="G24" s="11">
+      <c r="F24" s="9">
+        <v>8</v>
+      </c>
+      <c r="G24" s="9">
         <v>13</v>
       </c>
-      <c r="H24" s="11">
-        <v>8</v>
-      </c>
-      <c r="I24" s="11">
+      <c r="H24" s="9">
+        <v>8</v>
+      </c>
+      <c r="I24" s="9">
         <v>13</v>
       </c>
-      <c r="J24" s="11">
-        <v>9</v>
-      </c>
-      <c r="K24" s="11">
+      <c r="J24" s="9">
+        <v>9</v>
+      </c>
+      <c r="K24" s="9">
         <v>13</v>
       </c>
-      <c r="L24" s="11">
-        <v>9</v>
-      </c>
-      <c r="M24" s="11">
+      <c r="L24" s="9">
+        <v>9</v>
+      </c>
+      <c r="M24" s="9">
         <v>13</v>
       </c>
-      <c r="N24" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="N24" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>73</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <v>13</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <v>74</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <v>13</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="12">
         <v>74</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="12">
         <v>13</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="12">
         <v>74</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="12">
         <v>13</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="12">
         <v>74</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="12">
         <v>14</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="12">
         <v>74</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="9">
         <v>50</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="9">
         <v>27</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="9">
         <v>50</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="9">
         <v>28</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="9">
         <v>50</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="9">
         <v>29</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="9">
         <v>50</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="9">
         <v>30</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="9">
         <v>51</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="9">
         <v>31</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="9">
         <v>48</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N26" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>1</v>
       </c>
-      <c r="D27" s="13">
-        <v>6</v>
-      </c>
-      <c r="E27" s="13">
+      <c r="D27" s="12">
+        <v>6</v>
+      </c>
+      <c r="E27" s="12">
         <v>1</v>
       </c>
-      <c r="F27" s="13">
-        <v>6</v>
-      </c>
-      <c r="G27" s="13">
+      <c r="F27" s="12">
+        <v>6</v>
+      </c>
+      <c r="G27" s="12">
         <v>1</v>
       </c>
-      <c r="H27" s="13">
-        <v>6</v>
-      </c>
-      <c r="I27" s="13">
+      <c r="H27" s="12">
+        <v>6</v>
+      </c>
+      <c r="I27" s="12">
         <v>1</v>
       </c>
-      <c r="J27" s="13">
-        <v>6</v>
-      </c>
-      <c r="K27" s="13">
+      <c r="J27" s="12">
+        <v>6</v>
+      </c>
+      <c r="K27" s="12">
         <v>1</v>
       </c>
-      <c r="L27" s="13">
-        <v>6</v>
-      </c>
-      <c r="M27" s="13">
+      <c r="L27" s="12">
+        <v>6</v>
+      </c>
+      <c r="M27" s="12">
         <v>1</v>
       </c>
-      <c r="N27" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
+      <c r="N27" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="11">
-        <v>8</v>
-      </c>
-      <c r="D28" s="11">
+      <c r="C28" s="9">
+        <v>8</v>
+      </c>
+      <c r="D28" s="9">
         <v>3</v>
       </c>
-      <c r="E28" s="11">
-        <v>8</v>
-      </c>
-      <c r="F28" s="11">
+      <c r="E28" s="9">
+        <v>8</v>
+      </c>
+      <c r="F28" s="9">
         <v>3</v>
       </c>
-      <c r="G28" s="11">
-        <v>8</v>
-      </c>
-      <c r="H28" s="11">
+      <c r="G28" s="9">
+        <v>8</v>
+      </c>
+      <c r="H28" s="9">
         <v>3</v>
       </c>
-      <c r="I28" s="11">
-        <v>8</v>
-      </c>
-      <c r="J28" s="11">
+      <c r="I28" s="9">
+        <v>8</v>
+      </c>
+      <c r="J28" s="9">
         <v>3</v>
       </c>
-      <c r="K28" s="11">
-        <v>8</v>
-      </c>
-      <c r="L28" s="11">
+      <c r="K28" s="9">
+        <v>8</v>
+      </c>
+      <c r="L28" s="9">
         <v>3</v>
       </c>
-      <c r="M28" s="11">
-        <v>8</v>
-      </c>
-      <c r="N28" s="12">
+      <c r="M28" s="9">
+        <v>8</v>
+      </c>
+      <c r="N28" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>11</v>
       </c>
-      <c r="D29" s="13">
-        <v>8</v>
-      </c>
-      <c r="E29" s="13">
+      <c r="D29" s="12">
+        <v>8</v>
+      </c>
+      <c r="E29" s="12">
         <v>11</v>
       </c>
-      <c r="F29" s="13">
-        <v>9</v>
-      </c>
-      <c r="G29" s="13">
+      <c r="F29" s="12">
+        <v>9</v>
+      </c>
+      <c r="G29" s="12">
         <v>11</v>
       </c>
-      <c r="H29" s="13">
-        <v>10</v>
-      </c>
-      <c r="I29" s="13">
+      <c r="H29" s="12">
+        <v>10</v>
+      </c>
+      <c r="I29" s="12">
         <v>11</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="12">
         <v>12</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="12">
         <v>11</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="12">
         <v>12</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="12">
         <v>11</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="9">
         <v>21</v>
       </c>
-      <c r="D30" s="11">
-        <v>9</v>
-      </c>
-      <c r="E30" s="11">
+      <c r="D30" s="9">
+        <v>9</v>
+      </c>
+      <c r="E30" s="9">
         <v>21</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="9">
         <v>11</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="9">
         <v>21</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="9">
         <v>11</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="9">
         <v>21</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="9">
         <v>12</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="9">
         <v>23</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="9">
         <v>12</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M30" s="9">
         <v>22</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B31" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>20</v>
       </c>
-      <c r="D31" s="13">
-        <v>10</v>
-      </c>
-      <c r="E31" s="13">
+      <c r="D31" s="12">
+        <v>10</v>
+      </c>
+      <c r="E31" s="12">
         <v>21</v>
       </c>
-      <c r="F31" s="13">
-        <v>10</v>
-      </c>
-      <c r="G31" s="13">
+      <c r="F31" s="12">
+        <v>10</v>
+      </c>
+      <c r="G31" s="12">
         <v>21</v>
       </c>
-      <c r="H31" s="13">
-        <v>10</v>
-      </c>
-      <c r="I31" s="13">
+      <c r="H31" s="12">
+        <v>10</v>
+      </c>
+      <c r="I31" s="12">
         <v>21</v>
       </c>
-      <c r="J31" s="13">
-        <v>10</v>
-      </c>
-      <c r="K31" s="13">
+      <c r="J31" s="12">
+        <v>10</v>
+      </c>
+      <c r="K31" s="12">
         <v>21</v>
       </c>
-      <c r="L31" s="13">
-        <v>10</v>
-      </c>
-      <c r="M31" s="13">
+      <c r="L31" s="12">
+        <v>10</v>
+      </c>
+      <c r="M31" s="12">
         <v>21</v>
       </c>
-      <c r="N31" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
+      <c r="N31" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="11">
-        <v>9</v>
-      </c>
-      <c r="D32" s="11">
+      <c r="C32" s="9">
+        <v>9</v>
+      </c>
+      <c r="D32" s="9">
         <v>4</v>
       </c>
-      <c r="E32" s="11">
-        <v>8</v>
-      </c>
-      <c r="F32" s="11">
+      <c r="E32" s="9">
+        <v>8</v>
+      </c>
+      <c r="F32" s="9">
         <v>5</v>
       </c>
-      <c r="G32" s="11">
-        <v>8</v>
-      </c>
-      <c r="H32" s="11">
+      <c r="G32" s="9">
+        <v>8</v>
+      </c>
+      <c r="H32" s="9">
         <v>5</v>
       </c>
-      <c r="I32" s="11">
-        <v>8</v>
-      </c>
-      <c r="J32" s="11">
+      <c r="I32" s="9">
+        <v>8</v>
+      </c>
+      <c r="J32" s="9">
         <v>5</v>
       </c>
-      <c r="K32" s="11">
-        <v>8</v>
-      </c>
-      <c r="L32" s="11">
-        <v>6</v>
-      </c>
-      <c r="M32" s="11">
-        <v>8</v>
-      </c>
-      <c r="N32" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
+      <c r="K32" s="9">
+        <v>8</v>
+      </c>
+      <c r="L32" s="9">
+        <v>6</v>
+      </c>
+      <c r="M32" s="9">
+        <v>8</v>
+      </c>
+      <c r="N32" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="13">
-        <v>9</v>
-      </c>
-      <c r="D33" s="13">
+      <c r="C33" s="12">
+        <v>9</v>
+      </c>
+      <c r="D33" s="12">
         <v>21</v>
       </c>
-      <c r="E33" s="13">
-        <v>9</v>
-      </c>
-      <c r="F33" s="13">
+      <c r="E33" s="12">
+        <v>9</v>
+      </c>
+      <c r="F33" s="12">
         <v>21</v>
       </c>
-      <c r="G33" s="13">
-        <v>9</v>
-      </c>
-      <c r="H33" s="13">
+      <c r="G33" s="12">
+        <v>9</v>
+      </c>
+      <c r="H33" s="12">
         <v>21</v>
       </c>
-      <c r="I33" s="13">
-        <v>10</v>
-      </c>
-      <c r="J33" s="13">
+      <c r="I33" s="12">
+        <v>10</v>
+      </c>
+      <c r="J33" s="12">
         <v>21</v>
       </c>
-      <c r="K33" s="13">
-        <v>10</v>
-      </c>
-      <c r="L33" s="13">
+      <c r="K33" s="12">
+        <v>10</v>
+      </c>
+      <c r="L33" s="12">
         <v>22</v>
       </c>
-      <c r="M33" s="13">
-        <v>8</v>
-      </c>
-      <c r="N33" s="14">
+      <c r="M33" s="12">
+        <v>8</v>
+      </c>
+      <c r="N33" s="13">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B34" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="9">
         <v>15</v>
       </c>
-      <c r="D34" s="11">
-        <v>6</v>
-      </c>
-      <c r="E34" s="11">
+      <c r="D34" s="9">
+        <v>6</v>
+      </c>
+      <c r="E34" s="9">
         <v>15</v>
       </c>
-      <c r="F34" s="11">
-        <v>6</v>
-      </c>
-      <c r="G34" s="11">
+      <c r="F34" s="9">
+        <v>6</v>
+      </c>
+      <c r="G34" s="9">
         <v>16</v>
       </c>
-      <c r="H34" s="11">
-        <v>6</v>
-      </c>
-      <c r="I34" s="11">
+      <c r="H34" s="9">
+        <v>6</v>
+      </c>
+      <c r="I34" s="9">
         <v>16</v>
       </c>
-      <c r="J34" s="11">
-        <v>6</v>
-      </c>
-      <c r="K34" s="11">
+      <c r="J34" s="9">
+        <v>6</v>
+      </c>
+      <c r="K34" s="9">
         <v>16</v>
       </c>
-      <c r="L34" s="11">
-        <v>6</v>
-      </c>
-      <c r="M34" s="11">
+      <c r="L34" s="9">
+        <v>6</v>
+      </c>
+      <c r="M34" s="9">
         <v>14</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="2:14" ht="39" x14ac:dyDescent="0.45">
+      <c r="B35" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <v>71</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="12">
         <v>34</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="12">
         <v>71</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="12">
         <v>35</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="12">
         <v>71</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="12">
         <v>35</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="12">
         <v>71</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="12">
         <v>35</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="12">
         <v>72</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="12">
         <v>35</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="12">
         <v>71</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N35" s="13">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B36" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="11">
-        <v>10</v>
-      </c>
-      <c r="D36" s="11">
+      <c r="C36" s="9">
+        <v>10</v>
+      </c>
+      <c r="D36" s="9">
         <v>3</v>
       </c>
-      <c r="E36" s="11">
-        <v>10</v>
-      </c>
-      <c r="F36" s="11">
+      <c r="E36" s="9">
+        <v>10</v>
+      </c>
+      <c r="F36" s="9">
         <v>4</v>
       </c>
-      <c r="G36" s="11">
-        <v>10</v>
-      </c>
-      <c r="H36" s="11">
+      <c r="G36" s="9">
+        <v>10</v>
+      </c>
+      <c r="H36" s="9">
         <v>4</v>
       </c>
-      <c r="I36" s="11">
-        <v>10</v>
-      </c>
-      <c r="J36" s="11">
+      <c r="I36" s="9">
+        <v>10</v>
+      </c>
+      <c r="J36" s="9">
         <v>4</v>
       </c>
-      <c r="K36" s="11">
-        <v>10</v>
-      </c>
-      <c r="L36" s="11">
+      <c r="K36" s="9">
+        <v>10</v>
+      </c>
+      <c r="L36" s="9">
         <v>4</v>
       </c>
-      <c r="M36" s="11">
-        <v>9</v>
-      </c>
-      <c r="N36" s="12">
+      <c r="M36" s="9">
+        <v>9</v>
+      </c>
+      <c r="N36" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B37" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="15">
-        <v>8</v>
-      </c>
-      <c r="D37" s="15">
+      <c r="C37" s="16">
+        <v>8</v>
+      </c>
+      <c r="D37" s="16">
         <v>7</v>
       </c>
-      <c r="E37" s="15">
-        <v>8</v>
-      </c>
-      <c r="F37" s="15">
+      <c r="E37" s="16">
+        <v>8</v>
+      </c>
+      <c r="F37" s="16">
         <v>7</v>
       </c>
-      <c r="G37" s="15">
-        <v>8</v>
-      </c>
-      <c r="H37" s="15">
+      <c r="G37" s="16">
+        <v>8</v>
+      </c>
+      <c r="H37" s="16">
         <v>7</v>
       </c>
-      <c r="I37" s="15">
-        <v>8</v>
-      </c>
-      <c r="J37" s="15">
+      <c r="I37" s="16">
+        <v>8</v>
+      </c>
+      <c r="J37" s="16">
         <v>7</v>
       </c>
-      <c r="K37" s="15">
-        <v>8</v>
-      </c>
-      <c r="L37" s="15">
+      <c r="K37" s="16">
+        <v>8</v>
+      </c>
+      <c r="L37" s="16">
         <v>7</v>
       </c>
-      <c r="M37" s="15">
-        <v>8</v>
-      </c>
-      <c r="N37" s="16">
+      <c r="M37" s="16">
+        <v>8</v>
+      </c>
+      <c r="N37" s="17">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="N38" s="18"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="N39" s="10"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="8"/>
-    </row>
-    <row r="166" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H166" s="3"/>
-    </row>
-    <row r="167" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H167" s="3"/>
+      <c r="C39" s="14"/>
+      <c r="N39" s="19"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C40" s="20"/>
+    </row>
+    <row r="166" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H166" s="14"/>
+    </row>
+    <row r="167" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H167" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2064,7 +2062,7 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Terminales_Pasajeros.xlsx
+++ b/Terminales_Pasajeros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FC2FC0-9D75-4953-A48E-741122757AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD8C5EE-B677-4DD9-AAE1-116CF09B11BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_17" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -149,14 +149,14 @@
     <t>Terminales de pasajeros por entidad federativa</t>
   </si>
   <si>
-    <t>Actualización: Mayo 2024.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -292,12 +292,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -306,15 +317,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -344,6 +346,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -586,13 +598,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O167"/>
+  <dimension ref="B2:P167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.875" style="3" customWidth="1"/>
@@ -611,7 +623,7 @@
     <col min="15" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:16" ht="18">
       <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
@@ -628,7 +640,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -643,1417 +655,1618 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:16">
+      <c r="B4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="18">
         <v>2018</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18">
         <v>2019</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18">
         <v>2020</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18">
         <v>2021</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18">
         <v>2022</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5">
+      <c r="L4" s="18"/>
+      <c r="M4" s="18">
         <v>2023</v>
       </c>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="N4" s="18"/>
+      <c r="O4" s="18">
+        <v>2024</v>
+      </c>
+      <c r="P4" s="18"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="19"/>
+      <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B6" s="8" t="s">
+      <c r="O5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="6">
         <v>2</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="6">
         <v>2</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="6">
         <v>1</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="6">
         <v>2</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B7" s="11" t="s">
+      <c r="O6" s="6">
+        <v>2</v>
+      </c>
+      <c r="P6" s="20">
         <v>1</v>
       </c>
-      <c r="C7" s="12">
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
         <v>28</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>12</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <v>28</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="9">
         <v>12</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="9">
         <v>28</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="9">
         <v>12</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="9">
         <v>28</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="9">
         <v>12</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="9">
         <v>28</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="9">
         <v>12</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="9">
         <v>26</v>
       </c>
-      <c r="N7" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B8" s="8" t="s">
+      <c r="N7" s="9">
+        <v>10</v>
+      </c>
+      <c r="O7" s="9">
+        <v>26</v>
+      </c>
+      <c r="P7" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9">
-        <v>11</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="6">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6">
         <v>5</v>
       </c>
-      <c r="E8" s="9">
-        <v>11</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="E8" s="6">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
         <v>5</v>
       </c>
-      <c r="G8" s="9">
-        <v>11</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="G8" s="6">
+        <v>11</v>
+      </c>
+      <c r="H8" s="6">
         <v>5</v>
       </c>
-      <c r="I8" s="9">
-        <v>11</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="I8" s="6">
+        <v>11</v>
+      </c>
+      <c r="J8" s="6">
         <v>5</v>
       </c>
-      <c r="K8" s="9">
-        <v>11</v>
-      </c>
-      <c r="L8" s="9">
+      <c r="K8" s="6">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6">
         <v>5</v>
       </c>
-      <c r="M8" s="9">
-        <v>11</v>
-      </c>
-      <c r="N8" s="10">
+      <c r="M8" s="6">
+        <v>11</v>
+      </c>
+      <c r="N8" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B9" s="11" t="s">
+      <c r="O8" s="6">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="12">
-        <v>9</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="9">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9">
         <v>3</v>
       </c>
-      <c r="E9" s="12">
-        <v>9</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="E9" s="9">
+        <v>9</v>
+      </c>
+      <c r="F9" s="9">
         <v>3</v>
       </c>
-      <c r="G9" s="12">
-        <v>9</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="G9" s="9">
+        <v>9</v>
+      </c>
+      <c r="H9" s="9">
         <v>3</v>
       </c>
-      <c r="I9" s="12">
-        <v>9</v>
-      </c>
-      <c r="J9" s="12">
+      <c r="I9" s="9">
+        <v>9</v>
+      </c>
+      <c r="J9" s="9">
         <v>3</v>
       </c>
-      <c r="K9" s="12">
-        <v>9</v>
-      </c>
-      <c r="L9" s="12">
+      <c r="K9" s="9">
+        <v>9</v>
+      </c>
+      <c r="L9" s="9">
         <v>3</v>
       </c>
-      <c r="M9" s="12">
-        <v>9</v>
-      </c>
-      <c r="N9" s="13">
+      <c r="M9" s="9">
+        <v>9</v>
+      </c>
+      <c r="N9" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="O9" s="9">
+        <v>9</v>
+      </c>
+      <c r="P9" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
         <v>26</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>13</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>26</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>17</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>26</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <v>17</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="6">
         <v>26</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="6">
         <v>18</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="6">
         <v>26</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="6">
         <v>20</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="6">
         <v>20</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B11" s="11" t="s">
+      <c r="O10" s="6">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>17</v>
       </c>
-      <c r="D11" s="12">
-        <v>6</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="D11" s="9">
+        <v>6</v>
+      </c>
+      <c r="E11" s="9">
         <v>17</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="9">
         <v>7</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="9">
         <v>17</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="9">
         <v>7</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="9">
         <v>17</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="9">
         <v>7</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="9">
         <v>19</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="9">
         <v>7</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="9">
         <v>18</v>
       </c>
-      <c r="N11" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="N11" s="9">
+        <v>8</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="18" customHeight="1">
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6">
         <v>4</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>7</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="6">
         <v>4</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="6">
         <v>7</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>12</v>
       </c>
-      <c r="H12" s="9">
-        <v>8</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="H12" s="6">
+        <v>8</v>
+      </c>
+      <c r="I12" s="6">
         <v>12</v>
       </c>
-      <c r="J12" s="9">
-        <v>8</v>
-      </c>
-      <c r="K12" s="9">
+      <c r="J12" s="6">
+        <v>8</v>
+      </c>
+      <c r="K12" s="6">
         <v>12</v>
       </c>
-      <c r="L12" s="9">
-        <v>9</v>
-      </c>
-      <c r="M12" s="9">
-        <v>6</v>
-      </c>
-      <c r="N12" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="11" t="s">
+      <c r="L12" s="6">
+        <v>9</v>
+      </c>
+      <c r="M12" s="6">
+        <v>6</v>
+      </c>
+      <c r="N12" s="6">
+        <v>10</v>
+      </c>
+      <c r="O12" s="6">
+        <v>21</v>
+      </c>
+      <c r="P12" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="33">
+      <c r="B13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="9">
         <v>12</v>
       </c>
-      <c r="D13" s="12">
-        <v>6</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="D13" s="9">
+        <v>6</v>
+      </c>
+      <c r="E13" s="9">
         <v>12</v>
       </c>
-      <c r="F13" s="12">
-        <v>8</v>
-      </c>
-      <c r="G13" s="12">
+      <c r="F13" s="9">
+        <v>8</v>
+      </c>
+      <c r="G13" s="9">
         <v>0</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="9">
         <v>2</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="9">
         <v>0</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="9">
         <v>2</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="9">
         <v>0</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="9">
         <v>2</v>
       </c>
-      <c r="M13" s="12">
-        <v>11</v>
-      </c>
-      <c r="N13" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="8" t="s">
+      <c r="M13" s="9">
+        <v>11</v>
+      </c>
+      <c r="N13" s="9">
+        <v>8</v>
+      </c>
+      <c r="O13" s="9">
+        <v>20</v>
+      </c>
+      <c r="P13" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6">
         <v>0</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="6">
         <v>0</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <v>2</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>4</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="6">
         <v>7</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="6">
         <v>4</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="6">
         <v>7</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="6">
         <v>4</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="6">
         <v>7</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="12">
-        <v>6</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="O14" s="6">
+        <v>6</v>
+      </c>
+      <c r="P14" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="9">
+        <v>6</v>
+      </c>
+      <c r="D15" s="9">
         <v>3</v>
       </c>
-      <c r="E15" s="12">
-        <v>6</v>
-      </c>
-      <c r="F15" s="12">
+      <c r="E15" s="9">
+        <v>6</v>
+      </c>
+      <c r="F15" s="9">
         <v>3</v>
       </c>
-      <c r="G15" s="12">
-        <v>6</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="G15" s="9">
+        <v>6</v>
+      </c>
+      <c r="H15" s="9">
         <v>4</v>
       </c>
-      <c r="I15" s="12">
-        <v>6</v>
-      </c>
-      <c r="J15" s="12">
+      <c r="I15" s="9">
+        <v>6</v>
+      </c>
+      <c r="J15" s="9">
         <v>4</v>
       </c>
-      <c r="K15" s="12">
-        <v>6</v>
-      </c>
-      <c r="L15" s="12">
+      <c r="K15" s="9">
+        <v>6</v>
+      </c>
+      <c r="L15" s="9">
         <v>4</v>
       </c>
-      <c r="M15" s="12">
-        <v>6</v>
-      </c>
-      <c r="N15" s="13">
+      <c r="M15" s="9">
+        <v>6</v>
+      </c>
+      <c r="N15" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B16" s="8" t="s">
+      <c r="O15" s="9">
+        <v>6</v>
+      </c>
+      <c r="P15" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="6">
         <v>30</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="6">
         <v>22</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <v>33</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="6">
         <v>23</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <v>33</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="6">
         <v>23</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="6">
         <v>33</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="6">
         <v>23</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="6">
         <v>33</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="6">
         <v>24</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="6">
         <v>30</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="6">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="12">
-        <v>9</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="O16" s="6">
+        <v>9</v>
+      </c>
+      <c r="P16" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="9">
+        <v>9</v>
+      </c>
+      <c r="D17" s="9">
         <v>18</v>
       </c>
-      <c r="E17" s="12">
-        <v>10</v>
-      </c>
-      <c r="F17" s="12">
+      <c r="E17" s="9">
+        <v>10</v>
+      </c>
+      <c r="F17" s="9">
         <v>19</v>
       </c>
-      <c r="G17" s="12">
-        <v>10</v>
-      </c>
-      <c r="H17" s="12">
+      <c r="G17" s="9">
+        <v>10</v>
+      </c>
+      <c r="H17" s="9">
         <v>19</v>
       </c>
-      <c r="I17" s="12">
-        <v>10</v>
-      </c>
-      <c r="J17" s="12">
+      <c r="I17" s="9">
+        <v>10</v>
+      </c>
+      <c r="J17" s="9">
         <v>19</v>
       </c>
-      <c r="K17" s="12">
-        <v>10</v>
-      </c>
-      <c r="L17" s="12">
+      <c r="K17" s="9">
+        <v>10</v>
+      </c>
+      <c r="L17" s="9">
         <v>19</v>
       </c>
-      <c r="M17" s="12">
-        <v>9</v>
-      </c>
-      <c r="N17" s="13">
+      <c r="M17" s="9">
+        <v>9</v>
+      </c>
+      <c r="N17" s="9">
         <v>19</v>
       </c>
-      <c r="O17" s="14"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="O17" s="9">
+        <v>24</v>
+      </c>
+      <c r="P17" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6">
         <v>26</v>
       </c>
-      <c r="D18" s="9">
-        <v>10</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="D18" s="6">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6">
         <v>26</v>
       </c>
-      <c r="F18" s="9">
-        <v>11</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="F18" s="6">
+        <v>11</v>
+      </c>
+      <c r="G18" s="6">
         <v>26</v>
       </c>
-      <c r="H18" s="9">
-        <v>11</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="H18" s="6">
+        <v>11</v>
+      </c>
+      <c r="I18" s="6">
         <v>26</v>
       </c>
-      <c r="J18" s="9">
-        <v>11</v>
-      </c>
-      <c r="K18" s="9">
+      <c r="J18" s="6">
+        <v>11</v>
+      </c>
+      <c r="K18" s="6">
         <v>26</v>
       </c>
-      <c r="L18" s="9">
-        <v>11</v>
-      </c>
-      <c r="M18" s="9">
+      <c r="L18" s="6">
+        <v>11</v>
+      </c>
+      <c r="M18" s="6">
         <v>24</v>
       </c>
-      <c r="N18" s="10">
-        <v>11</v>
-      </c>
-      <c r="O18" s="14"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B19" s="11" t="s">
+      <c r="N18" s="6">
+        <v>11</v>
+      </c>
+      <c r="O18" s="6">
+        <v>15</v>
+      </c>
+      <c r="P18" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="9">
         <v>17</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="9">
         <v>13</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="9">
         <v>16</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="9">
         <v>14</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="9">
         <v>16</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="9">
         <v>14</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="9">
         <v>16</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="9">
         <v>15</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="9">
         <v>16</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="9">
         <v>16</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="9">
         <v>15</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B20" s="8" t="s">
+      <c r="O19" s="9">
+        <v>41</v>
+      </c>
+      <c r="P19" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="6">
         <v>41</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <v>26</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="6">
         <v>41</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="6">
         <v>26</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="6">
         <v>43</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="6">
         <v>27</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="6">
         <v>44</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="6">
         <v>29</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="6">
         <v>44</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="6">
         <v>29</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="6">
         <v>41</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11" t="s">
+      <c r="O20" s="6">
+        <v>29</v>
+      </c>
+      <c r="P20" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="17.25" customHeight="1">
+      <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="9">
         <v>15</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="9">
         <v>15</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="9">
         <v>15</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="9">
         <v>15</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="9">
         <v>15</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="9">
         <v>15</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="9">
         <v>15</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="9">
         <v>16</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="9">
         <v>15</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="9">
         <v>16</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="9">
         <v>13</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B22" s="8" t="s">
+      <c r="O21" s="9">
+        <v>13</v>
+      </c>
+      <c r="P21" s="10">
         <v>16</v>
       </c>
-      <c r="C22" s="9">
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="6">
         <v>18</v>
       </c>
-      <c r="D22" s="9">
-        <v>9</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="D22" s="6">
+        <v>9</v>
+      </c>
+      <c r="E22" s="6">
         <v>18</v>
       </c>
-      <c r="F22" s="9">
-        <v>9</v>
-      </c>
-      <c r="G22" s="9">
+      <c r="F22" s="6">
+        <v>9</v>
+      </c>
+      <c r="G22" s="6">
         <v>18</v>
       </c>
-      <c r="H22" s="9">
-        <v>9</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="H22" s="6">
+        <v>9</v>
+      </c>
+      <c r="I22" s="6">
         <v>18</v>
       </c>
-      <c r="J22" s="9">
-        <v>9</v>
-      </c>
-      <c r="K22" s="9">
+      <c r="J22" s="6">
+        <v>9</v>
+      </c>
+      <c r="K22" s="6">
         <v>18</v>
       </c>
-      <c r="L22" s="9">
-        <v>9</v>
-      </c>
-      <c r="M22" s="9">
+      <c r="L22" s="6">
+        <v>9</v>
+      </c>
+      <c r="M22" s="6">
         <v>18</v>
       </c>
-      <c r="N22" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B23" s="11" t="s">
+      <c r="N22" s="6">
+        <v>9</v>
+      </c>
+      <c r="O22" s="6">
+        <v>18</v>
+      </c>
+      <c r="P22" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="9">
         <v>19</v>
       </c>
-      <c r="D23" s="12">
-        <v>9</v>
-      </c>
-      <c r="E23" s="12">
+      <c r="D23" s="9">
+        <v>9</v>
+      </c>
+      <c r="E23" s="9">
         <v>19</v>
       </c>
-      <c r="F23" s="12">
-        <v>9</v>
-      </c>
-      <c r="G23" s="12">
+      <c r="F23" s="9">
+        <v>9</v>
+      </c>
+      <c r="G23" s="9">
         <v>19</v>
       </c>
-      <c r="H23" s="12">
-        <v>9</v>
-      </c>
-      <c r="I23" s="12">
+      <c r="H23" s="9">
+        <v>9</v>
+      </c>
+      <c r="I23" s="9">
         <v>19</v>
       </c>
-      <c r="J23" s="12">
-        <v>9</v>
-      </c>
-      <c r="K23" s="12">
+      <c r="J23" s="9">
+        <v>9</v>
+      </c>
+      <c r="K23" s="9">
         <v>19</v>
       </c>
-      <c r="L23" s="12">
-        <v>10</v>
-      </c>
-      <c r="M23" s="12">
+      <c r="L23" s="9">
+        <v>10</v>
+      </c>
+      <c r="M23" s="9">
         <v>21</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B24" s="8" t="s">
+      <c r="O23" s="9">
+        <v>21</v>
+      </c>
+      <c r="P23" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <v>13</v>
       </c>
-      <c r="D24" s="9">
-        <v>8</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="D24" s="6">
+        <v>8</v>
+      </c>
+      <c r="E24" s="6">
         <v>13</v>
       </c>
-      <c r="F24" s="9">
-        <v>8</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="F24" s="6">
+        <v>8</v>
+      </c>
+      <c r="G24" s="6">
         <v>13</v>
       </c>
-      <c r="H24" s="9">
-        <v>8</v>
-      </c>
-      <c r="I24" s="9">
+      <c r="H24" s="6">
+        <v>8</v>
+      </c>
+      <c r="I24" s="6">
         <v>13</v>
       </c>
-      <c r="J24" s="9">
-        <v>9</v>
-      </c>
-      <c r="K24" s="9">
+      <c r="J24" s="6">
+        <v>9</v>
+      </c>
+      <c r="K24" s="6">
         <v>13</v>
       </c>
-      <c r="L24" s="9">
-        <v>9</v>
-      </c>
-      <c r="M24" s="9">
+      <c r="L24" s="6">
+        <v>9</v>
+      </c>
+      <c r="M24" s="6">
         <v>13</v>
       </c>
-      <c r="N24" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B25" s="11" t="s">
+      <c r="N24" s="6">
+        <v>10</v>
+      </c>
+      <c r="O24" s="6">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="9">
         <v>73</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="9">
         <v>13</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="9">
         <v>74</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="9">
         <v>13</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="9">
         <v>74</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="9">
         <v>13</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="9">
         <v>74</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="9">
         <v>13</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="9">
         <v>74</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="9">
         <v>14</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="9">
         <v>74</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="9">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B26" s="8" t="s">
+      <c r="O25" s="9">
+        <v>73</v>
+      </c>
+      <c r="P25" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="6">
         <v>50</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="6">
         <v>27</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="6">
         <v>50</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="6">
         <v>28</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="6">
         <v>50</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="6">
         <v>29</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="6">
         <v>50</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="6">
         <v>30</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="6">
         <v>51</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="6">
         <v>31</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="6">
         <v>48</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B27" s="11" t="s">
+      <c r="O26" s="6">
+        <v>48</v>
+      </c>
+      <c r="P26" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="9">
         <v>1</v>
       </c>
-      <c r="D27" s="12">
-        <v>6</v>
-      </c>
-      <c r="E27" s="12">
+      <c r="D27" s="9">
+        <v>6</v>
+      </c>
+      <c r="E27" s="9">
         <v>1</v>
       </c>
-      <c r="F27" s="12">
-        <v>6</v>
-      </c>
-      <c r="G27" s="12">
+      <c r="F27" s="9">
+        <v>6</v>
+      </c>
+      <c r="G27" s="9">
         <v>1</v>
       </c>
-      <c r="H27" s="12">
-        <v>6</v>
-      </c>
-      <c r="I27" s="12">
+      <c r="H27" s="9">
+        <v>6</v>
+      </c>
+      <c r="I27" s="9">
         <v>1</v>
       </c>
-      <c r="J27" s="12">
-        <v>6</v>
-      </c>
-      <c r="K27" s="12">
+      <c r="J27" s="9">
+        <v>6</v>
+      </c>
+      <c r="K27" s="9">
         <v>1</v>
       </c>
-      <c r="L27" s="12">
-        <v>6</v>
-      </c>
-      <c r="M27" s="12">
+      <c r="L27" s="9">
+        <v>6</v>
+      </c>
+      <c r="M27" s="9">
         <v>1</v>
       </c>
-      <c r="N27" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B28" s="8" t="s">
+      <c r="N27" s="9">
+        <v>6</v>
+      </c>
+      <c r="O27" s="9">
+        <v>1</v>
+      </c>
+      <c r="P27" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="9">
-        <v>8</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="C28" s="6">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6">
         <v>3</v>
       </c>
-      <c r="E28" s="9">
-        <v>8</v>
-      </c>
-      <c r="F28" s="9">
+      <c r="E28" s="6">
+        <v>8</v>
+      </c>
+      <c r="F28" s="6">
         <v>3</v>
       </c>
-      <c r="G28" s="9">
-        <v>8</v>
-      </c>
-      <c r="H28" s="9">
+      <c r="G28" s="6">
+        <v>8</v>
+      </c>
+      <c r="H28" s="6">
         <v>3</v>
       </c>
-      <c r="I28" s="9">
-        <v>8</v>
-      </c>
-      <c r="J28" s="9">
+      <c r="I28" s="6">
+        <v>8</v>
+      </c>
+      <c r="J28" s="6">
         <v>3</v>
       </c>
-      <c r="K28" s="9">
-        <v>8</v>
-      </c>
-      <c r="L28" s="9">
+      <c r="K28" s="6">
+        <v>8</v>
+      </c>
+      <c r="L28" s="6">
         <v>3</v>
       </c>
-      <c r="M28" s="9">
-        <v>8</v>
-      </c>
-      <c r="N28" s="10">
+      <c r="M28" s="6">
+        <v>8</v>
+      </c>
+      <c r="N28" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B29" s="11" t="s">
+      <c r="O28" s="6">
+        <v>8</v>
+      </c>
+      <c r="P28" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="12">
-        <v>11</v>
-      </c>
-      <c r="D29" s="12">
-        <v>8</v>
-      </c>
-      <c r="E29" s="12">
-        <v>11</v>
-      </c>
-      <c r="F29" s="12">
-        <v>9</v>
-      </c>
-      <c r="G29" s="12">
-        <v>11</v>
-      </c>
-      <c r="H29" s="12">
-        <v>10</v>
-      </c>
-      <c r="I29" s="12">
-        <v>11</v>
-      </c>
-      <c r="J29" s="12">
+      <c r="C29" s="9">
+        <v>11</v>
+      </c>
+      <c r="D29" s="9">
+        <v>8</v>
+      </c>
+      <c r="E29" s="9">
+        <v>11</v>
+      </c>
+      <c r="F29" s="9">
+        <v>9</v>
+      </c>
+      <c r="G29" s="9">
+        <v>11</v>
+      </c>
+      <c r="H29" s="9">
+        <v>10</v>
+      </c>
+      <c r="I29" s="9">
+        <v>11</v>
+      </c>
+      <c r="J29" s="9">
         <v>12</v>
       </c>
-      <c r="K29" s="12">
-        <v>11</v>
-      </c>
-      <c r="L29" s="12">
+      <c r="K29" s="9">
+        <v>11</v>
+      </c>
+      <c r="L29" s="9">
         <v>12</v>
       </c>
-      <c r="M29" s="12">
-        <v>11</v>
-      </c>
-      <c r="N29" s="13">
+      <c r="M29" s="9">
+        <v>11</v>
+      </c>
+      <c r="N29" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B30" s="8" t="s">
+      <c r="O29" s="9">
+        <v>11</v>
+      </c>
+      <c r="P29" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>21</v>
       </c>
-      <c r="D30" s="9">
-        <v>9</v>
-      </c>
-      <c r="E30" s="9">
+      <c r="D30" s="6">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6">
         <v>21</v>
       </c>
-      <c r="F30" s="9">
-        <v>11</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="F30" s="6">
+        <v>11</v>
+      </c>
+      <c r="G30" s="6">
         <v>21</v>
       </c>
-      <c r="H30" s="9">
-        <v>11</v>
-      </c>
-      <c r="I30" s="9">
+      <c r="H30" s="6">
+        <v>11</v>
+      </c>
+      <c r="I30" s="6">
         <v>21</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="6">
         <v>12</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="6">
         <v>23</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="6">
         <v>12</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="6">
         <v>22</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B31" s="11" t="s">
+      <c r="O30" s="6">
+        <v>23</v>
+      </c>
+      <c r="P30" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="9">
         <v>20</v>
       </c>
-      <c r="D31" s="12">
-        <v>10</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="D31" s="9">
+        <v>10</v>
+      </c>
+      <c r="E31" s="9">
         <v>21</v>
       </c>
-      <c r="F31" s="12">
-        <v>10</v>
-      </c>
-      <c r="G31" s="12">
+      <c r="F31" s="9">
+        <v>10</v>
+      </c>
+      <c r="G31" s="9">
         <v>21</v>
       </c>
-      <c r="H31" s="12">
-        <v>10</v>
-      </c>
-      <c r="I31" s="12">
+      <c r="H31" s="9">
+        <v>10</v>
+      </c>
+      <c r="I31" s="9">
         <v>21</v>
       </c>
-      <c r="J31" s="12">
-        <v>10</v>
-      </c>
-      <c r="K31" s="12">
+      <c r="J31" s="9">
+        <v>10</v>
+      </c>
+      <c r="K31" s="9">
         <v>21</v>
       </c>
-      <c r="L31" s="12">
-        <v>10</v>
-      </c>
-      <c r="M31" s="12">
+      <c r="L31" s="9">
+        <v>10</v>
+      </c>
+      <c r="M31" s="9">
         <v>21</v>
       </c>
-      <c r="N31" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B32" s="8" t="s">
+      <c r="N31" s="9">
+        <v>9</v>
+      </c>
+      <c r="O31" s="9">
+        <v>22</v>
+      </c>
+      <c r="P31" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="9">
-        <v>9</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="C32" s="6">
+        <v>9</v>
+      </c>
+      <c r="D32" s="6">
         <v>4</v>
       </c>
-      <c r="E32" s="9">
-        <v>8</v>
-      </c>
-      <c r="F32" s="9">
+      <c r="E32" s="6">
+        <v>8</v>
+      </c>
+      <c r="F32" s="6">
         <v>5</v>
       </c>
-      <c r="G32" s="9">
-        <v>8</v>
-      </c>
-      <c r="H32" s="9">
+      <c r="G32" s="6">
+        <v>8</v>
+      </c>
+      <c r="H32" s="6">
         <v>5</v>
       </c>
-      <c r="I32" s="9">
-        <v>8</v>
-      </c>
-      <c r="J32" s="9">
+      <c r="I32" s="6">
+        <v>8</v>
+      </c>
+      <c r="J32" s="6">
         <v>5</v>
       </c>
-      <c r="K32" s="9">
-        <v>8</v>
-      </c>
-      <c r="L32" s="9">
-        <v>6</v>
-      </c>
-      <c r="M32" s="9">
-        <v>8</v>
-      </c>
-      <c r="N32" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B33" s="11" t="s">
+      <c r="K32" s="6">
+        <v>8</v>
+      </c>
+      <c r="L32" s="6">
+        <v>6</v>
+      </c>
+      <c r="M32" s="6">
+        <v>8</v>
+      </c>
+      <c r="N32" s="6">
+        <v>6</v>
+      </c>
+      <c r="O32" s="6">
+        <v>8</v>
+      </c>
+      <c r="P32" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="12">
-        <v>9</v>
-      </c>
-      <c r="D33" s="12">
+      <c r="C33" s="9">
+        <v>9</v>
+      </c>
+      <c r="D33" s="9">
         <v>21</v>
       </c>
-      <c r="E33" s="12">
-        <v>9</v>
-      </c>
-      <c r="F33" s="12">
+      <c r="E33" s="9">
+        <v>9</v>
+      </c>
+      <c r="F33" s="9">
         <v>21</v>
       </c>
-      <c r="G33" s="12">
-        <v>9</v>
-      </c>
-      <c r="H33" s="12">
+      <c r="G33" s="9">
+        <v>9</v>
+      </c>
+      <c r="H33" s="9">
         <v>21</v>
       </c>
-      <c r="I33" s="12">
-        <v>10</v>
-      </c>
-      <c r="J33" s="12">
+      <c r="I33" s="9">
+        <v>10</v>
+      </c>
+      <c r="J33" s="9">
         <v>21</v>
       </c>
-      <c r="K33" s="12">
-        <v>10</v>
-      </c>
-      <c r="L33" s="12">
+      <c r="K33" s="9">
+        <v>10</v>
+      </c>
+      <c r="L33" s="9">
         <v>22</v>
       </c>
-      <c r="M33" s="12">
-        <v>8</v>
-      </c>
-      <c r="N33" s="13">
+      <c r="M33" s="9">
+        <v>8</v>
+      </c>
+      <c r="N33" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B34" s="8" t="s">
+      <c r="O33" s="9">
+        <v>8</v>
+      </c>
+      <c r="P33" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="B34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="6">
         <v>15</v>
       </c>
-      <c r="D34" s="9">
-        <v>6</v>
-      </c>
-      <c r="E34" s="9">
+      <c r="D34" s="6">
+        <v>6</v>
+      </c>
+      <c r="E34" s="6">
         <v>15</v>
       </c>
-      <c r="F34" s="9">
-        <v>6</v>
-      </c>
-      <c r="G34" s="9">
+      <c r="F34" s="6">
+        <v>6</v>
+      </c>
+      <c r="G34" s="6">
         <v>16</v>
       </c>
-      <c r="H34" s="9">
-        <v>6</v>
-      </c>
-      <c r="I34" s="9">
+      <c r="H34" s="6">
+        <v>6</v>
+      </c>
+      <c r="I34" s="6">
         <v>16</v>
       </c>
-      <c r="J34" s="9">
-        <v>6</v>
-      </c>
-      <c r="K34" s="9">
+      <c r="J34" s="6">
+        <v>6</v>
+      </c>
+      <c r="K34" s="6">
         <v>16</v>
       </c>
-      <c r="L34" s="9">
-        <v>6</v>
-      </c>
-      <c r="M34" s="9">
+      <c r="L34" s="6">
+        <v>6</v>
+      </c>
+      <c r="M34" s="6">
         <v>14</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" ht="39" x14ac:dyDescent="0.45">
-      <c r="B35" s="11" t="s">
+      <c r="O34" s="6">
+        <v>14</v>
+      </c>
+      <c r="P34" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="33">
+      <c r="B35" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="9">
         <v>71</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="9">
         <v>34</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="9">
         <v>71</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="9">
         <v>35</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="9">
         <v>71</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="9">
         <v>35</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="9">
         <v>71</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="9">
         <v>35</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="9">
         <v>72</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="9">
         <v>35</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="9">
         <v>71</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="9">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B36" s="8" t="s">
+      <c r="O35" s="9">
+        <v>72</v>
+      </c>
+      <c r="P35" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="9">
-        <v>10</v>
-      </c>
-      <c r="D36" s="9">
+      <c r="C36" s="6">
+        <v>10</v>
+      </c>
+      <c r="D36" s="6">
         <v>3</v>
       </c>
-      <c r="E36" s="9">
-        <v>10</v>
-      </c>
-      <c r="F36" s="9">
+      <c r="E36" s="6">
+        <v>10</v>
+      </c>
+      <c r="F36" s="6">
         <v>4</v>
       </c>
-      <c r="G36" s="9">
-        <v>10</v>
-      </c>
-      <c r="H36" s="9">
+      <c r="G36" s="6">
+        <v>10</v>
+      </c>
+      <c r="H36" s="6">
         <v>4</v>
       </c>
-      <c r="I36" s="9">
-        <v>10</v>
-      </c>
-      <c r="J36" s="9">
+      <c r="I36" s="6">
+        <v>10</v>
+      </c>
+      <c r="J36" s="6">
         <v>4</v>
       </c>
-      <c r="K36" s="9">
-        <v>10</v>
-      </c>
-      <c r="L36" s="9">
+      <c r="K36" s="6">
+        <v>10</v>
+      </c>
+      <c r="L36" s="6">
         <v>4</v>
       </c>
-      <c r="M36" s="9">
-        <v>9</v>
-      </c>
-      <c r="N36" s="10">
+      <c r="M36" s="6">
+        <v>9</v>
+      </c>
+      <c r="N36" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B37" s="15" t="s">
+      <c r="O36" s="6">
+        <v>9</v>
+      </c>
+      <c r="P36" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="16">
-        <v>8</v>
-      </c>
-      <c r="D37" s="16">
+      <c r="C37" s="13">
+        <v>8</v>
+      </c>
+      <c r="D37" s="13">
         <v>7</v>
       </c>
-      <c r="E37" s="16">
-        <v>8</v>
-      </c>
-      <c r="F37" s="16">
+      <c r="E37" s="13">
+        <v>8</v>
+      </c>
+      <c r="F37" s="13">
         <v>7</v>
       </c>
-      <c r="G37" s="16">
-        <v>8</v>
-      </c>
-      <c r="H37" s="16">
+      <c r="G37" s="13">
+        <v>8</v>
+      </c>
+      <c r="H37" s="13">
         <v>7</v>
       </c>
-      <c r="I37" s="16">
-        <v>8</v>
-      </c>
-      <c r="J37" s="16">
+      <c r="I37" s="13">
+        <v>8</v>
+      </c>
+      <c r="J37" s="13">
         <v>7</v>
       </c>
-      <c r="K37" s="16">
-        <v>8</v>
-      </c>
-      <c r="L37" s="16">
+      <c r="K37" s="13">
+        <v>8</v>
+      </c>
+      <c r="L37" s="13">
         <v>7</v>
       </c>
-      <c r="M37" s="16">
-        <v>8</v>
-      </c>
-      <c r="N37" s="17">
+      <c r="M37" s="13">
+        <v>8</v>
+      </c>
+      <c r="N37" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O37" s="13">
+        <v>8</v>
+      </c>
+      <c r="P37" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16">
       <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="N38" s="18"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="2:16">
       <c r="B39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="N39" s="19"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="C40" s="20"/>
-    </row>
-    <row r="166" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H166" s="14"/>
-    </row>
-    <row r="167" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H167" s="14"/>
+      <c r="C39" s="11"/>
+      <c r="N39" s="16"/>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="C40" s="17"/>
+    </row>
+    <row r="166" spans="8:8">
+      <c r="H166" s="11"/>
+    </row>
+    <row r="167" spans="8:8">
+      <c r="H167" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="O4:P4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:D4"/>
